--- a/US LAGOS LIMNO STATES_completed.xlsx
+++ b/US LAGOS LIMNO STATES_completed.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arnab\Documents\GitHub\lagos_database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30A13D7B-CC61-40E7-AC59-26170ABD794E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C3B29EE-43DF-4376-887A-AE178FE3AE00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{46A05E0A-CC21-4F8A-8220-76B686BDE7B7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{46A05E0A-CC21-4F8A-8220-76B686BDE7B7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="88">
   <si>
     <t>Completed states</t>
   </si>
@@ -149,9 +149,6 @@
     <t>Florida</t>
   </si>
   <si>
-    <t>WI</t>
-  </si>
-  <si>
     <t>CA</t>
   </si>
   <si>
@@ -234,6 +231,72 @@
   </si>
   <si>
     <t>Utah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NE states </t>
+  </si>
+  <si>
+    <t>Connecticut</t>
+  </si>
+  <si>
+    <t>Illinois</t>
+  </si>
+  <si>
+    <t>Indiana</t>
+  </si>
+  <si>
+    <t>Iowa</t>
+  </si>
+  <si>
+    <t>Maine</t>
+  </si>
+  <si>
+    <t>Massachusetts</t>
+  </si>
+  <si>
+    <t>Michigan</t>
+  </si>
+  <si>
+    <t>Minnesota</t>
+  </si>
+  <si>
+    <t>Missouri</t>
+  </si>
+  <si>
+    <t>New Hampshire</t>
+  </si>
+  <si>
+    <t>New Jersey</t>
+  </si>
+  <si>
+    <t>New York</t>
+  </si>
+  <si>
+    <t>Ohio</t>
+  </si>
+  <si>
+    <t>Pennsylvania</t>
+  </si>
+  <si>
+    <t>Rhode Island</t>
+  </si>
+  <si>
+    <t>Vermont</t>
+  </si>
+  <si>
+    <t>17 NE states</t>
+  </si>
+  <si>
+    <t>30 LAGOS US States</t>
+  </si>
+  <si>
+    <t>No data for West virginia</t>
+  </si>
+  <si>
+    <t>Not using: hawaii and alaska</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30+1+2+17 = 50 </t>
   </si>
 </sst>
 </file>
@@ -593,10 +656,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CDE3E35-49FC-46EC-96F5-3B7303789114}">
-  <dimension ref="A1:H34"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -604,7 +667,7 @@
     <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.28515625" bestFit="1" customWidth="1"/>
@@ -628,6 +691,9 @@
       <c r="D3" t="s">
         <v>34</v>
       </c>
+      <c r="F3" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -642,6 +708,9 @@
       <c r="D4" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="F4" t="s">
+        <v>67</v>
+      </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
@@ -658,6 +727,9 @@
       <c r="D5" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="F5" t="s">
+        <v>68</v>
+      </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
@@ -674,6 +746,9 @@
       <c r="D6" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="F6" t="s">
+        <v>69</v>
+      </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
     </row>
@@ -690,6 +765,9 @@
       <c r="D7" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="F7" t="s">
+        <v>70</v>
+      </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
@@ -706,6 +784,9 @@
       <c r="D8" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="F8" t="s">
+        <v>71</v>
+      </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
@@ -722,6 +803,9 @@
       <c r="D9" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="F9" t="s">
+        <v>72</v>
+      </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
     </row>
@@ -738,6 +822,9 @@
       <c r="D10" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="F10" t="s">
+        <v>73</v>
+      </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
     </row>
@@ -754,6 +841,9 @@
       <c r="D11" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="F11" t="s">
+        <v>74</v>
+      </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
     </row>
@@ -770,6 +860,9 @@
       <c r="D12" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="F12" t="s">
+        <v>75</v>
+      </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
     </row>
@@ -786,6 +879,9 @@
       <c r="D13" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="F13" t="s">
+        <v>76</v>
+      </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
     </row>
@@ -796,11 +892,14 @@
       <c r="B14" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>25</v>
+      </c>
+      <c r="F14" t="s">
+        <v>77</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
@@ -812,11 +911,14 @@
       <c r="B15" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>26</v>
+      </c>
+      <c r="F15" t="s">
+        <v>78</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
@@ -828,11 +930,14 @@
       <c r="B16" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>27</v>
+      </c>
+      <c r="F16" t="s">
+        <v>79</v>
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
@@ -844,11 +949,14 @@
       <c r="B17" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>28</v>
+      </c>
+      <c r="F17" t="s">
+        <v>80</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
@@ -860,11 +968,14 @@
       <c r="B18" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>29</v>
+      </c>
+      <c r="F18" t="s">
+        <v>81</v>
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
@@ -873,11 +984,14 @@
       <c r="B19" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>35</v>
+      <c r="C19" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
+      </c>
+      <c r="F19" t="s">
+        <v>82</v>
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
@@ -886,11 +1000,14 @@
       <c r="B20" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>36</v>
+      <c r="C20" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
+      </c>
+      <c r="F20" t="s">
+        <v>35</v>
       </c>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
@@ -899,160 +1016,172 @@
       <c r="B21" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>37</v>
+      <c r="C21" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>41</v>
-      </c>
-      <c r="C22" s="2" t="s">
         <v>42</v>
       </c>
+      <c r="C22" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="D22" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>43</v>
-      </c>
-      <c r="C23" s="2" t="s">
         <v>44</v>
       </c>
+      <c r="C23" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="D23" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>45</v>
-      </c>
-      <c r="C24" t="s">
         <v>46</v>
       </c>
+      <c r="C24" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="D24" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>47</v>
-      </c>
-      <c r="C25" t="s">
         <v>48</v>
       </c>
-      <c r="D25" t="s">
-        <v>48</v>
+      <c r="C25" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>49</v>
-      </c>
-      <c r="C26" t="s">
         <v>50</v>
       </c>
-      <c r="D26" t="s">
-        <v>50</v>
+      <c r="C26" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>51</v>
-      </c>
-      <c r="C27" t="s">
         <v>52</v>
       </c>
-      <c r="D27" t="s">
-        <v>52</v>
+      <c r="C27" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>53</v>
-      </c>
-      <c r="C28" t="s">
         <v>54</v>
       </c>
-      <c r="D28" t="s">
-        <v>54</v>
+      <c r="C28" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>55</v>
-      </c>
-      <c r="C29" t="s">
         <v>56</v>
       </c>
-      <c r="D29" t="s">
-        <v>56</v>
+      <c r="C29" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>57</v>
-      </c>
-      <c r="C30" t="s">
         <v>58</v>
       </c>
-      <c r="D30" t="s">
-        <v>58</v>
+      <c r="C30" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>59</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="1" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>60</v>
-      </c>
-      <c r="C32" t="s">
         <v>62</v>
       </c>
-      <c r="D32" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C32" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>63</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
-        <v>64</v>
-      </c>
-      <c r="C34" t="s">
-        <v>66</v>
-      </c>
-      <c r="D34" t="s">
-        <v>66</v>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D36" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D37" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D39" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D41" s="1" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
